--- a/RiverArchitect/LifespanDesign/.templates/threshold_values.xlsx
+++ b/RiverArchitect/LifespanDesign/.templates/threshold_values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\StreamRestoration\LifespanDesign\.templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,13 +395,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -448,15 +441,22 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="5" tint="0.79998168889431442"/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="0.59999389629810485"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -467,11 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -524,6 +519,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="163">
     <border>
@@ -2828,10 +2829,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2839,856 +2840,856 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="74" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="68" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="74" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="80" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="81" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="80" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="82" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="84" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="90" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="91" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="103" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="112" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="113" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="114" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="115" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="116" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="118" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="124" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="125" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="11" borderId="118" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="88" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="81" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="90" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="51" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="74" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="80" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="81" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="80" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="82" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="84" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="88" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="89" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="90" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="91" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="103" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="112" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="113" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="114" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="115" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="116" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="118" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="124" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="125" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="118" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="87" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="88" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="81" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="90" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="132" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="130" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="134" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="136" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="137" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="139" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="140" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="142" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="144" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="145" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="132" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="130" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="134" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="136" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="137" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="139" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="140" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="142" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="144" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="145" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="160" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="160" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="64" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="64" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3987,7 +3988,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4014,29 +4015,29 @@
   <sheetData>
     <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="288" t="s">
+      <c r="E2" s="285" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="291" t="s">
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="294" t="s">
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="291" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="295"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="297" t="s">
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="294" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="298"/>
-      <c r="S2" s="299"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="296"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="251"/>
@@ -4058,67 +4059,67 @@
       <c r="N3" s="254"/>
       <c r="O3" s="256"/>
       <c r="P3" s="261"/>
-      <c r="Q3" s="286" t="s">
+      <c r="Q3" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="287"/>
-      <c r="S3" s="279" t="s">
+      <c r="R3" s="284"/>
+      <c r="S3" s="276" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="270" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="274" t="s">
+      <c r="F4" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="274" t="s">
+      <c r="G4" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="275" t="s">
+      <c r="H4" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="276" t="s">
+      <c r="I4" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="273" t="s">
+      <c r="J4" s="270" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="274" t="s">
+      <c r="K4" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="274" t="s">
+      <c r="L4" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="277" t="s">
+      <c r="M4" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="273" t="s">
+      <c r="N4" s="270" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="275" t="s">
+      <c r="O4" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="276" t="s">
+      <c r="P4" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="278" t="s">
+      <c r="Q4" s="275" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="271" t="s">
+      <c r="R4" s="268" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="276" t="s">
+      <c r="S4" s="273" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4132,22 +4133,22 @@
       <c r="D5" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="265" t="s">
+      <c r="E5" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="266" t="s">
+      <c r="F5" s="298" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="266" t="s">
+      <c r="G5" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="266" t="s">
+      <c r="H5" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="299" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="268" t="s">
+      <c r="J5" s="265" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="263" t="s">
@@ -4156,25 +4157,25 @@
       <c r="L5" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="269" t="s">
+      <c r="M5" s="266" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="265" t="s">
+      <c r="N5" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="266" t="s">
+      <c r="O5" s="298" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="267" t="s">
+      <c r="P5" s="299" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="265" t="s">
+      <c r="Q5" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="266" t="s">
+      <c r="R5" s="298" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="267" t="s">
+      <c r="S5" s="299" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4494,7 +4495,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="123">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="38"/>
@@ -4512,7 +4513,7 @@
       </c>
       <c r="P15" s="124"/>
       <c r="Q15" s="210">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R15" s="39">
         <v>1</v>
@@ -4814,13 +4815,13 @@
     </row>
     <row r="24" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="281" t="s">
+      <c r="B25" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="282"/>
-      <c r="D25" s="282"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="283"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="280"/>
     </row>
     <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -4829,10 +4830,10 @@
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="98"/>
-      <c r="E27" s="284" t="s">
+      <c r="E27" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="285"/>
+      <c r="F27" s="282"/>
     </row>
     <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
@@ -4841,10 +4842,10 @@
       </c>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="280" t="s">
+      <c r="E29" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="280"/>
+      <c r="F29" s="277"/>
     </row>
   </sheetData>
   <mergeCells count="8">
